--- a/Plan/Data_추출파일/003.숨그찾정답테이블.xlsx
+++ b/Plan/Data_추출파일/003.숨그찾정답테이블.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365cntu-my.sharepoint.com/personal/201938026_s_cntu_ac_kr/Documents/Funigloo/1. 티니핑 프로젝트/Tiniffing_plan/Plan/Data_추출파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B5F41C-B19E-4589-9839-5F5C52D16E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A95A76A-0D82-40CD-97E9-E967DBADA975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D5423D2-ED94-4F57-AD18-2155CACCBD95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7310196F-9CDE-4F4C-8817-9C32D430D94A}"/>
   </bookViews>
   <sheets>
     <sheet name="003.숨그찾정답테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -153,7 +153,13 @@
     <t>h_map_1</t>
   </si>
   <si>
-    <t>spot1_0</t>
+    <t>m1_spot1</t>
+  </si>
+  <si>
+    <t>m1_spot2</t>
+  </si>
+  <si>
+    <t>m1_spot3</t>
   </si>
   <si>
     <t>h_map_2</t>
@@ -211,66 +217,6 @@
   </si>
   <si>
     <t>h_map_20</t>
-  </si>
-  <si>
-    <t>h_map_21</t>
-  </si>
-  <si>
-    <t>h_map_22</t>
-  </si>
-  <si>
-    <t>h_map_23</t>
-  </si>
-  <si>
-    <t>h_map_24</t>
-  </si>
-  <si>
-    <t>h_map_25</t>
-  </si>
-  <si>
-    <t>h_map_26</t>
-  </si>
-  <si>
-    <t>h_map_27</t>
-  </si>
-  <si>
-    <t>h_map_28</t>
-  </si>
-  <si>
-    <t>h_map_29</t>
-  </si>
-  <si>
-    <t>h_map_30</t>
-  </si>
-  <si>
-    <t>h_map_31</t>
-  </si>
-  <si>
-    <t>h_map_32</t>
-  </si>
-  <si>
-    <t>h_map_33</t>
-  </si>
-  <si>
-    <t>h_map_34</t>
-  </si>
-  <si>
-    <t>h_map_35</t>
-  </si>
-  <si>
-    <t>h_map_36</t>
-  </si>
-  <si>
-    <t>h_map_37</t>
-  </si>
-  <si>
-    <t>h_map_38</t>
-  </si>
-  <si>
-    <t>h_map_39</t>
-  </si>
-  <si>
-    <t>h_map_40</t>
   </si>
   <si>
     <t>data</t>
@@ -283,7 +229,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -637,17 +583,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CF01C3-A3A7-4240-8B50-8A5C114684BE}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CB2FEF-73AC-45D5-A2FC-1CC03AC76F74}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -766,7 +711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -798,13 +743,31 @@
         <v>39</v>
       </c>
       <c r="K2">
-        <v>320</v>
+        <v>-254</v>
       </c>
       <c r="L2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>381</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>487</v>
+      </c>
+      <c r="R2">
+        <v>-157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -824,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -833,7 +796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -853,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -862,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -882,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -891,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -911,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -920,7 +883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -940,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -949,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -969,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -978,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -998,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1007,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1027,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1036,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1056,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1065,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1085,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1094,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1114,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1123,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1143,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1152,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1172,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1181,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1201,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1210,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1230,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1239,7 +1202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1259,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1268,7 +1231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1288,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1297,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1317,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -1326,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1346,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1355,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1375,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -1384,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1404,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -1413,7 +1376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1433,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -1442,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1462,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -1471,7 +1434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1491,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -1500,7 +1463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1520,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -1529,7 +1492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1549,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -1558,7 +1521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1578,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -1587,7 +1550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1607,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -1616,7 +1579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1636,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -1645,7 +1608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1665,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -1674,7 +1637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1694,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -1703,7 +1666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1723,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -1732,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1752,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -1761,7 +1724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1781,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -1790,7 +1753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1810,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -1819,7 +1782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1839,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -1848,7 +1811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1868,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -1877,7 +1840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1897,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -1906,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1926,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H41">
         <v>5</v>
